--- a/results/I3_N5_M2_T45_C200_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.16639862726319</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16639862726319</v>
+        <v>22.73074255039767</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.46902814888774</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.32864898449879</v>
+        <v>33.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.93612771406968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35.50084538957422</v>
+        <v>34.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.11128125366427</v>
+        <v>35.28505371695348</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.09348202631362</v>
+        <v>39.12492551463005</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.505</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>188.4800000000007</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>199.3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>197.98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>181.8750000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>180.9550000000005</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.4800000000005</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>190.1700000000005</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>196.1300000000005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>196.4950000000005</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>124.9599999999998</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>138.0799999999998</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>133.1649999999998</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>142.2699999999998</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>140.5149999999998</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.48499999999971</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.76499999999972</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50499999999971</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.05999999999972</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>180.9550000000005</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>196.4800000000005</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.1700000000005</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>196.1300000000005</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>196.4950000000005</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.505</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>188.4800000000007</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>199.3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.98</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.8750000000007</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
